--- a/biology/Histoire de la zoologie et de la botanique/Eugene_William_Oates/Eugene_William_Oates.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugene_William_Oates/Eugene_William_Oates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugene William Oates est un naturaliste britannique, né le 31 décembre 1845 en Sicile et mort le 16 novembre 1911.
 Il fait ses études à Bath. Il devient fonctionnaire au département des travaux publics en Inde et en Birmanie de 1867 à 1899. Il se retire en Grande-Bretagne. Il réalise alors un catalogue des œufs des collections du Natural History Museum de Londres. Il est le secrétaire du British Ornithologists' Union de 1898 à 1901.
@@ -512,11 +524,13 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>A handbook to the birds of British Burmah including those found in the adjoining state of Karennee. (Vol II. R.H. Porter, Londres, 1883).
 A manual of the Game Birds of India. (Vol. II, p. 139-146. Cambridge : Bombay, 1899).
-Avec William Thomas Blanford (1832-1905), Fauna of British India (birds)[1] (quatre volumes, Taylor &amp; Francis, Londres, 1889-1898).</t>
+Avec William Thomas Blanford (1832-1905), Fauna of British India (birds) (quatre volumes, Taylor &amp; Francis, Londres, 1889-1898).</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Espèces dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive.
 Argyrophis oatesii (Boulenger, 1890), un serpent de la famille des Typhlopidae
